--- a/3_output/sensitivity_hwws/cont/metareg_hwws_cont_freq.xlsx
+++ b/3_output/sensitivity_hwws/cont/metareg_hwws_cont_freq.xlsx
@@ -915,26 +915,26 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>65.516779636428737</v>
+        <v>62.955045768375293</v>
       </c>
       <c r="D2">
-        <v>87.072720721905441</v>
+        <v>76.353738533845245</v>
       </c>
     </row>
     <row r="3">
       <c r="B3">
-        <v>0.013409763875823001</v>
+        <v>0.0025524060457199002</v>
       </c>
       <c r="D3">
-        <v>0.047498590699175697</v>
+        <v>0.051928593201401703</v>
       </c>
     </row>
     <row r="4">
       <c r="B4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="D4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.043026881349660005</v>
+        <v>0.087048826561435505</v>
       </c>
       <c r="D6" s="3">
-        <v>-0.28318045362061084</v>
+        <v>-0.38681933016962244</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="29">
-        <v>0.050695227484198024</v>
+        <v>0.049133789560099075</v>
       </c>
       <c r="J6" s="30">
-        <v>-0.45529003907468269</v>
+        <v>-0.40098575458925556</v>
       </c>
     </row>
     <row r="7">
@@ -962,19 +962,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.017400787340521643</v>
+        <v>0.028852217638138753</v>
       </c>
       <c r="D7" s="6">
-        <v>0.074205082823404794</v>
+        <v>0.092412739113326065</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="32">
-        <v>0.025580045019668006</v>
+        <v>0.025278155852568866</v>
       </c>
       <c r="J7" s="33">
-        <v>0.10933346135186674</v>
+        <v>0.092512696352219856</v>
       </c>
     </row>
     <row r="8">
@@ -982,19 +982,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="8">
-        <v>2.4726973847592659</v>
+        <v>3.0170584338851185</v>
       </c>
       <c r="D8" s="9">
-        <v>-3.8161867468638384</v>
+        <v>-4.1857792971082111</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="35">
-        <v>1.9818271408521539</v>
+        <v>1.9437252403484135</v>
       </c>
       <c r="J8" s="36">
-        <v>-4.1642332863626033</v>
+        <v>-4.3343862021121797</v>
       </c>
     </row>
     <row r="9">
@@ -1002,19 +1002,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>0.013409763875822973</v>
+        <v>0.0025524060457198777</v>
       </c>
       <c r="D9" s="12">
-        <v>0.00013552994509451842</v>
+        <v>2.8418938267632559e-05</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="38">
-        <v>0.047498590699175662</v>
+        <v>0.051928593201401661</v>
       </c>
       <c r="J9" s="39">
-        <v>3.1240057314444659e-05</v>
+        <v>1.4616737466599305e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1022,19 +1022,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>0.0089219648595970785</v>
+        <v>0.030499519116572255</v>
       </c>
       <c r="D10" s="15">
-        <v>-0.42861974342429599</v>
+        <v>-0.56794497054443749</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="41">
-        <v>0.00055926052273556209</v>
+        <v>-0.00041048550652628135</v>
       </c>
       <c r="J10" s="42">
-        <v>-0.66957968562944337</v>
+        <v>-0.58230730755229643</v>
       </c>
     </row>
     <row r="11">
@@ -1042,19 +1042,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="17">
-        <v>0.077131797839722932</v>
+        <v>0.14359813400629876</v>
       </c>
       <c r="D11" s="18">
-        <v>-0.13774116381692567</v>
+        <v>-0.2056936897948074</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="44">
-        <v>0.10083119444566049</v>
+        <v>0.098678064626724432</v>
       </c>
       <c r="J11" s="45">
-        <v>-0.24100039251992198</v>
+        <v>-0.21966420162621464</v>
       </c>
     </row>
     <row r="12">
